--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_006.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_006.xlsx
@@ -31,202 +31,292 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295021AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Increasing drywell cooling</t>
-  </si>
-  <si>
-    <t>(295024EA1.20) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Standby gas treatment/FRVS</t>
-  </si>
-  <si>
-    <t>(295026EK2.01) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295003AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Station blackout</t>
-  </si>
-  <si>
-    <t>(295001AA2.13) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal limits</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+    <t>(295027EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295023AK2.06) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation (Mark III)</t>
   </si>
   <si>
     <t>(295031EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Core submergence</t>
   </si>
   <si>
-    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(700000AK2.01) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Motors</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
-  </si>
-  <si>
-    <t>(295006AA1.04) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295018AK2.05) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
-  </si>
-  <si>
-    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
-  </si>
-  <si>
-    <t>(295033EK2.06) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Systems required to suppress a fire</t>
-  </si>
-  <si>
-    <t>(295007AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 41.10) Turbine load</t>
-  </si>
-  <si>
-    <t>(295022AA2.02) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD hydraulic system status</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295032EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295036EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Affected systems so as to isolate damaged portions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215004A4.02) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS recorder </t>
-  </si>
-  <si>
-    <t>(203000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) AC electrical power</t>
-  </si>
-  <si>
-    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(510000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(261000A3.02) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) Fan start</t>
-  </si>
-  <si>
-    <t>(223002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Secondary containment temperature</t>
-  </si>
-  <si>
-    <t>(215005K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM detector operation</t>
-  </si>
-  <si>
-    <t>(262001K4.06) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Redundant power sources to vital buses</t>
-  </si>
-  <si>
-    <t>(217000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(211000A2.05) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of SLCS tank heaters</t>
-  </si>
-  <si>
-    <t>(264000A4.01) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Voltage/frequency</t>
-  </si>
-  <si>
-    <t>(209001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of emergency generators</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291008K1.10) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Function, control, and precautions associated with disconnects</t>
-  </si>
-  <si>
-    <t>(262002K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
-  </si>
-  <si>
-    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
-  </si>
-  <si>
-    <t>(259002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Water level measurement</t>
-  </si>
-  <si>
-    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
-  </si>
-  <si>
-    <t>(209002K3.04) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(215004A4.01) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS count rate and period</t>
-  </si>
-  <si>
-    <t>(203000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) ADS</t>
-  </si>
-  <si>
-    <t>(212000K2.02) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS logic</t>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
+  </si>
+  <si>
+    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
+  </si>
+  <si>
+    <t>(295030EK2.08) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to depressurize the reactor</t>
+  </si>
+  <si>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295001AA1.03) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295026EK2.12) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295025EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure control strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295018AA1.01) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Backup systems </t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment integrity</t>
+  </si>
+  <si>
+    <t>(295029EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295036EK2.01) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Equipment and floor drain sumps and pumps</t>
+  </si>
+  <si>
+    <t>(295022AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(209001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(215003K4.02) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
+  </si>
+  <si>
+    <t>(205000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(259002A2.07) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of comparator bias signal</t>
+  </si>
+  <si>
+    <t>(261000K2.03) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system initiation logic</t>
+  </si>
+  <si>
+    <t>(263000A4.04) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Ground detection circuit</t>
+  </si>
+  <si>
+    <t>(215005A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) RPS status</t>
+  </si>
+  <si>
+    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
+  </si>
+  <si>
+    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
+  </si>
+  <si>
+    <t>(239002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Nuclear boiler instrument system (pressure indication)</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291004K1.24) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Reason for starting a positive displacement pump with the discharge valve open; need to clear the flow path</t>
+  </si>
+  <si>
+    <t>(262002K3.22) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(510000K4.02) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic valve alignments</t>
+  </si>
+  <si>
+    <t>(262001K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t>(218000A2.05) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of electrical power to ADS</t>
+  </si>
+  <si>
+    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill system </t>
+  </si>
+  <si>
+    <t>(217000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
+  </si>
+  <si>
+    <t>(264000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Load sequencing</t>
+  </si>
+  <si>
+    <t>(209001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) ECCS room cooler(s)</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(215003K4.08) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS-IRM overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(202001A3.02) Ability to monitor automatic operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.7 / 45.7) Pump/MG set start sequence </t>
+  </si>
+  <si>
+    <t>(233000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.5 / 45.3) Interconnections with storage pools/pits</t>
+  </si>
+  <si>
+    <t>(268000A3.01) Ability to monitor automatic operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.7 / 45.7) Radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (291002K1.15) SENSORS AND DETECTORS (CFR: 41.7) (TEMPERATURE) Failure modes and indications of T/C, RTD or, thermometers</t>
+  </si>
+  <si>
+    <t>(201003K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM will have on the following systems or system parameters: (CFR: 41.1-2 / 41.7 / 41.10 / 45.1-6 / 4) Reactor power</t>
+  </si>
+  <si>
+    <t>(215001K4.03) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Radiation shielding</t>
+  </si>
+  <si>
+    <t>(239003K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Standby gas treatment system</t>
+  </si>
+  <si>
+    <t>(230000A2.09) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate room cooling</t>
+  </si>
+  <si>
+    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
+  </si>
+  <si>
+    <t>(510001A4.02) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Circulating water valves</t>
+  </si>
+  <si>
+    <t>(286000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
+  </si>
+  <si>
+    <t>(292008K1.17) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe three parameters to be monitored and controlled during power operation</t>
+  </si>
+  <si>
+    <t>(292004K1.16) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain and describe the effect of power defect and Doppler defect on reactivity</t>
+  </si>
+  <si>
+    <t>(293009K1.03) CORE THERMAL LIMITS (CFR: 41.14) Explain local peaking factor</t>
+  </si>
+  <si>
+    <t>(293007K1.07) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Describe how the presence of gases or steam can</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295020AA2.01) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment pressure</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
   </si>
   <si>
     <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
   </si>
   <si>
-    <t>(226001K3.02) Knowledge of the effect that a loss or malfunction of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell/suppression chamber temperature</t>
-  </si>
-  <si>
-    <t>(288000A2.04) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001A4.02) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Main steam line drain valves </t>
-  </si>
-  <si>
-    <t>(201005K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.7 / 45.7) Gang misalignment</t>
-  </si>
-  <si>
-    <t>(271000A2.15) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Air intrusion</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (291004K1.04) PUMPS (CFR: 41.3) (CENTRIFUGAL) Consequences of operating a pump dead headed or for extended times without adequate recirculation</t>
-  </si>
-  <si>
-    <t>(510001K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CWS*) CIRCULATING WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(202001A1.18) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
-  </si>
-  <si>
-    <t>(239003K4.01) Knowledge of (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Performance of its safety function following a loss of offsite power</t>
+    <t>(259002A2.06) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of controller signal output</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223001A2.02) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Steam bypass of suppression pool</t>
+  </si>
+  <si>
+    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(245000A2.04) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor SCRAM</t>
   </si>
   <si>
     <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
@@ -235,135 +325,45 @@
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292005K1.12) CONTROL RODS (CFR: 41.1) Describe effects of deep and shallow control rods on axial and radial flux distribution</t>
-  </si>
-  <si>
-    <t>(292006K1.13) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor shutdown</t>
-  </si>
-  <si>
-    <t>(293008K1.25) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the reason for forced core recirculation</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(293009K1.13) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Define MAPLHGR</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA2.12) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal-hydraulic instabilities</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AA2.02) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Reactor period</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(261000A2.05) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Fan trips</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215005A2.02) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(201001A2.01) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Pumps trips</t>
-  </si>
-  <si>
-    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(223001A2.16) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Opening of head vent to drywell equipment sump with pressure in the reactor vessel</t>
-  </si>
-  <si>
-    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293010</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>223001</t>
   </si>
   <si>
     <t>239001</t>
   </si>
   <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>223001</t>
+    <t>245000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1701,7 +1701,7 @@
         <v>4.2</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1752,7 +1752,7 @@
         <v>3.6</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
